--- a/IF, AND, OR.xlsx
+++ b/IF, AND, OR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwmu\Documents\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAFD8DD-9087-41BA-946A-85418E45221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127ADBF3-A4EA-49D3-BDEB-67ED47631569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F3F0E66-266D-4DFE-9447-4EA2F05EED44}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="OR" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,11 +110,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +144,13 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,12 +257,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -272,6 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,13 +291,16 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{83B52702-D5A1-4620-A957-CA881DF3632E}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF073673"/>
@@ -603,22 +618,22 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -635,10 +650,10 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>140802</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <f>IF(C5&gt;=100000,C5*2%,0)</f>
         <v>2816.04</v>
       </c>
@@ -647,10 +662,10 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>113448</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D14" si="0">IF(C6&gt;=100000,C6*2%,0)</f>
         <v>2268.96</v>
       </c>
@@ -659,10 +674,10 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>131468</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>2629.36</v>
       </c>
@@ -671,10 +686,10 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>141412</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>2828.2400000000002</v>
       </c>
@@ -683,10 +698,10 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>78197</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -695,10 +710,10 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>128571</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>2571.42</v>
       </c>
@@ -707,10 +722,10 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>107000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>2140</v>
       </c>
@@ -719,10 +734,10 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>90498</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -731,10 +746,10 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>86374</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -743,10 +758,10 @@
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>72070</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -784,14 +799,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1066,14 +1081,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
